--- a/Reports/Debt/Report1/pattern.xlsx
+++ b/Reports/Debt/Report1/pattern.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Block</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>$t1['month_Debet']</t>
+  </si>
+  <si>
+    <t>SUMMTable</t>
+  </si>
+  <si>
+    <t>ИТОГО по отчету</t>
   </si>
 </sst>
 </file>
@@ -259,7 +265,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -296,12 +302,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -604,10 +621,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G6" sqref="G6:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -643,18 +660,18 @@
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="20"/>
       <c r="L2" s="16"/>
       <c r="M2" s="2"/>
@@ -664,18 +681,18 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="20"/>
       <c r="L3" s="15"/>
     </row>
@@ -752,7 +769,7 @@
       <c r="J5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="22" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="18"/>
@@ -770,27 +787,27 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="13" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="19"/>
       <c r="N6" s="10" t="s">
         <v>9</v>
@@ -810,13 +827,59 @@
       <c r="S6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+    </row>
+    <row r="7" spans="1:23" ht="18" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="19"/>
+      <c r="N7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="23"/>
+      <c r="U7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W7" s="9">
         <v>0</v>
       </c>
     </row>
